--- a/stock_predictor_ai/data/company_sentiment_ready/HLT_sentiment.xlsx
+++ b/stock_predictor_ai/data/company_sentiment_ready/HLT_sentiment.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B2903"/>
+  <dimension ref="A1:B2957"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -23665,6 +23665,438 @@
         <v>0</v>
       </c>
     </row>
+    <row r="2904">
+      <c r="A2904" s="2" t="n">
+        <v>45838</v>
+      </c>
+      <c r="B2904" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2905">
+      <c r="A2905" s="2" t="n">
+        <v>45839</v>
+      </c>
+      <c r="B2905" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2906">
+      <c r="A2906" s="2" t="n">
+        <v>45840</v>
+      </c>
+      <c r="B2906" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2907">
+      <c r="A2907" s="2" t="n">
+        <v>45841</v>
+      </c>
+      <c r="B2907" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2908">
+      <c r="A2908" s="2" t="n">
+        <v>45845</v>
+      </c>
+      <c r="B2908" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2909">
+      <c r="A2909" s="2" t="n">
+        <v>45846</v>
+      </c>
+      <c r="B2909" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2910">
+      <c r="A2910" s="2" t="n">
+        <v>45847</v>
+      </c>
+      <c r="B2910" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2911">
+      <c r="A2911" s="2" t="n">
+        <v>45848</v>
+      </c>
+      <c r="B2911" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2912">
+      <c r="A2912" s="2" t="n">
+        <v>45849</v>
+      </c>
+      <c r="B2912" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2913">
+      <c r="A2913" s="2" t="n">
+        <v>45852</v>
+      </c>
+      <c r="B2913" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2914">
+      <c r="A2914" s="2" t="n">
+        <v>45853</v>
+      </c>
+      <c r="B2914" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2915">
+      <c r="A2915" s="2" t="n">
+        <v>45854</v>
+      </c>
+      <c r="B2915" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2916">
+      <c r="A2916" s="2" t="n">
+        <v>45855</v>
+      </c>
+      <c r="B2916" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2917">
+      <c r="A2917" s="2" t="n">
+        <v>45856</v>
+      </c>
+      <c r="B2917" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2918">
+      <c r="A2918" s="2" t="n">
+        <v>45859</v>
+      </c>
+      <c r="B2918" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2919">
+      <c r="A2919" s="2" t="n">
+        <v>45860</v>
+      </c>
+      <c r="B2919" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2920">
+      <c r="A2920" s="2" t="n">
+        <v>45861</v>
+      </c>
+      <c r="B2920" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2921">
+      <c r="A2921" s="2" t="n">
+        <v>45862</v>
+      </c>
+      <c r="B2921" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2922">
+      <c r="A2922" s="2" t="n">
+        <v>45863</v>
+      </c>
+      <c r="B2922" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2923">
+      <c r="A2923" s="2" t="n">
+        <v>45866</v>
+      </c>
+      <c r="B2923" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2924">
+      <c r="A2924" s="2" t="n">
+        <v>45867</v>
+      </c>
+      <c r="B2924" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2925">
+      <c r="A2925" s="2" t="n">
+        <v>45868</v>
+      </c>
+      <c r="B2925" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2926">
+      <c r="A2926" s="2" t="n">
+        <v>45869</v>
+      </c>
+      <c r="B2926" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2927">
+      <c r="A2927" s="2" t="n">
+        <v>45870</v>
+      </c>
+      <c r="B2927" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2928">
+      <c r="A2928" s="2" t="n">
+        <v>45873</v>
+      </c>
+      <c r="B2928" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2929">
+      <c r="A2929" s="2" t="n">
+        <v>45874</v>
+      </c>
+      <c r="B2929" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2930">
+      <c r="A2930" s="2" t="n">
+        <v>45875</v>
+      </c>
+      <c r="B2930" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2931">
+      <c r="A2931" s="2" t="n">
+        <v>45876</v>
+      </c>
+      <c r="B2931" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2932">
+      <c r="A2932" s="2" t="n">
+        <v>45877</v>
+      </c>
+      <c r="B2932" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2933">
+      <c r="A2933" s="2" t="n">
+        <v>45880</v>
+      </c>
+      <c r="B2933" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2934">
+      <c r="A2934" s="2" t="n">
+        <v>45881</v>
+      </c>
+      <c r="B2934" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2935">
+      <c r="A2935" s="2" t="n">
+        <v>45882</v>
+      </c>
+      <c r="B2935" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2936">
+      <c r="A2936" s="2" t="n">
+        <v>45883</v>
+      </c>
+      <c r="B2936" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2937">
+      <c r="A2937" s="2" t="n">
+        <v>45884</v>
+      </c>
+      <c r="B2937" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2938">
+      <c r="A2938" s="2" t="n">
+        <v>45887</v>
+      </c>
+      <c r="B2938" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2939">
+      <c r="A2939" s="2" t="n">
+        <v>45888</v>
+      </c>
+      <c r="B2939" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2940">
+      <c r="A2940" s="2" t="n">
+        <v>45889</v>
+      </c>
+      <c r="B2940" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2941">
+      <c r="A2941" s="2" t="n">
+        <v>45890</v>
+      </c>
+      <c r="B2941" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2942">
+      <c r="A2942" s="2" t="n">
+        <v>45891</v>
+      </c>
+      <c r="B2942" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2943">
+      <c r="A2943" s="2" t="n">
+        <v>45894</v>
+      </c>
+      <c r="B2943" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2944">
+      <c r="A2944" s="2" t="n">
+        <v>45895</v>
+      </c>
+      <c r="B2944" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2945">
+      <c r="A2945" s="2" t="n">
+        <v>45896</v>
+      </c>
+      <c r="B2945" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2946">
+      <c r="A2946" s="2" t="n">
+        <v>45897</v>
+      </c>
+      <c r="B2946" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2947">
+      <c r="A2947" s="2" t="n">
+        <v>45898</v>
+      </c>
+      <c r="B2947" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2948">
+      <c r="A2948" s="2" t="n">
+        <v>45902</v>
+      </c>
+      <c r="B2948" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2949">
+      <c r="A2949" s="2" t="n">
+        <v>45903</v>
+      </c>
+      <c r="B2949" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2950">
+      <c r="A2950" s="2" t="n">
+        <v>45904</v>
+      </c>
+      <c r="B2950" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2951">
+      <c r="A2951" s="2" t="n">
+        <v>45905</v>
+      </c>
+      <c r="B2951" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2952">
+      <c r="A2952" s="2" t="n">
+        <v>45908</v>
+      </c>
+      <c r="B2952" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2953">
+      <c r="A2953" s="2" t="n">
+        <v>45909</v>
+      </c>
+      <c r="B2953" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2954">
+      <c r="A2954" s="2" t="n">
+        <v>45910</v>
+      </c>
+      <c r="B2954" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2955">
+      <c r="A2955" s="2" t="n">
+        <v>45911</v>
+      </c>
+      <c r="B2955" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2956">
+      <c r="A2956" s="2" t="n">
+        <v>45912</v>
+      </c>
+      <c r="B2956" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2957">
+      <c r="A2957" s="2" t="n">
+        <v>45915</v>
+      </c>
+      <c r="B2957" t="n">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
